--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
   <si>
     <t>NRO</t>
   </si>
@@ -383,12 +383,6 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -415,6 +409,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis5" xfId="1" builtinId="45"/>
@@ -1547,290 +1547,290 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2063" name="Control 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2063"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2063" name="Control 15" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2063"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2064" name="Control 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2064"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2065" name="Control 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2064" name="Control 16" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2064"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2066"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2067"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2065" name="Control 17" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2065"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>5</xdr:col>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2068" name="Control 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2066"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2067"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2068" name="Control 20" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2068"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
           <xdr:col>9</xdr:col>
           <xdr:colOff>152400</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5755,10 +5755,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5771,20 +5771,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
@@ -5799,10 +5799,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="14">
         <v>201902</v>
       </c>
@@ -5854,7 +5854,9 @@
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -5868,7 +5870,9 @@
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -5894,7 +5898,9 @@
       <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -5908,7 +5914,9 @@
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -5922,7 +5930,9 @@
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -5936,7 +5946,9 @@
       <c r="E15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -5962,13 +5974,15 @@
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>10</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="25" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="7"/>
@@ -5976,7 +5990,9 @@
       <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -5990,7 +6006,9 @@
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
@@ -6035,7 +6053,9 @@
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -6049,7 +6069,9 @@
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -6063,7 +6085,9 @@
       <c r="E24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A9:F24">
@@ -6098,256 +6122,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="18"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
     </row>
-    <row r="4" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" spans="1:9" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6374,16 +6398,2441 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId19" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2049" r:id="rId19" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId19" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId21" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId21" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId22" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId22" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId23" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId23" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId24" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId24" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId25" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId25" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId26" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId26" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId27" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId27" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId28" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId28" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId29" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId29" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId30" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId30" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId31" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId31" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId32" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId32" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId33" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId33" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId34" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId34" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId35" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId35" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId36" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId36" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId37" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId37" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId38" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId38" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId39" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId39" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId40" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId40" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId41" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId41" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId42" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId42" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId43" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId43" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId44" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId44" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId45" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId45" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId46" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId46" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId47" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId47" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId48" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId48" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId49" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId49" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId50" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId50" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId51" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId51" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId52" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId52" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId53" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId53" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId54" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId54" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId55" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId55" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId56" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId56" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId57" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId57" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId58" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId58" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId59" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId59" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId60" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId60" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId61" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId61" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId62" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId62" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId63" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId63" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId64" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId64" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId65" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId65" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId66" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId66" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId67" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId67" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId68" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId68" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId69" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId69" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId70" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId70" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId71" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId71" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId72" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId72" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId73" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId73" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId74" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId74" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId75" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId75" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId76" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId76" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId77" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId77" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId78" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId78" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId79" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId79" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId80" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId80" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId81" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId81" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId82" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId82" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId83" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId83" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId84" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId84" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId85" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId85" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId86" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId86" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId87" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId87" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId88" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId88" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId89" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId89" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId90" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId90" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId91" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId91" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId92" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId92" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId93" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId93" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId94" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId94" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId95" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId95" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId96" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId96" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId97" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId97" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId98" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId98" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId99" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId99" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId100" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId100" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId101" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId101" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId102" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId102" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId103" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId103" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId104" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId104" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId105" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId105" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId106" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId106" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId107" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId107" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId108" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId108" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId109" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId109" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId110" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId110" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId111" name="Control 92">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId111" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId112" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId112" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId113" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId113" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId114" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId114" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId115" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId115" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId116" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId116" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId117" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
@@ -6394,2432 +8843,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2146" r:id="rId19" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId21" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId21" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId22" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId22" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId23" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId23" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId24" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId24" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId25" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId25" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId26" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId26" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId27" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId27" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId28" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId28" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId29" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId29" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId30" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId30" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId31" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId31" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId32" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId32" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId33" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId33" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId34" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId34" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId35" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId35" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId36" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId36" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId37" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId37" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId38" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId38" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId39" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId39" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId40" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId40" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId41" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId41" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId42" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId42" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId43" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId43" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId44" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId44" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId45" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId45" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId46" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId46" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId47" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId47" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId48" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId48" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId49" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId49" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId50" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId50" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId51" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId51" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId52" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId52" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId53" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId53" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId54" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId54" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId55" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId55" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId56" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId56" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId57" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId57" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId58" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId58" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId59" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId59" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId60" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId60" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId61" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId61" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId62" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId62" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId63" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId63" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId64" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId64" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId65" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId65" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId66" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId66" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId67" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId67" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId68" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId68" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId69" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId69" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId70" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId70" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId71" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId71" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId72" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId72" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId73" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId73" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId74" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId74" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId75" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId75" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId76" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId76" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId77" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId77" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId78" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId78" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId79" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId79" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId80" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId80" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId81" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId81" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId82" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId82" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId83" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId83" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId84" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId84" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId85" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId85" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId86" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId86" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId87" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId87" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId88" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId88" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId89" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId89" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId90" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId90" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId91" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId91" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId92" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId92" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId93" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId93" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId94" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId94" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId95" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId95" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId96" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId96" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId97" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId97" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId98" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId98" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId99" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId99" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId100" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId100" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId101" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId101" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId102" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId102" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId103" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId103" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId104" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId104" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId105" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId105" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId106" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId106" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId107" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId107" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId108" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId108" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId109" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId109" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId110" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId110" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId111" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId111" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId112" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId112" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId113" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId113" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId114" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId114" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId115" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId115" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId116" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId116" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId117" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId117" name="Control 1"/>
+        <control shapeId="2146" r:id="rId117" name="Control 98"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
   <si>
     <t>NRO</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>RAMOS CUEVA CESAR</t>
+  </si>
+  <si>
+    <t>HUAISARA OLARTE KAREN ROXANA</t>
   </si>
 </sst>
 </file>
@@ -5755,10 +5758,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5891,7 +5894,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -6398,367 +6401,1942 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId19" name="Control 1">
+        <control shapeId="2146" r:id="rId19" name="Control 98">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2146" r:id="rId19" name="Control 98"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId21" name="Control 97">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2145" r:id="rId21" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId22" name="Control 96">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2144" r:id="rId22" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId23" name="Control 95">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2143" r:id="rId23" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId24" name="Control 94">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2142" r:id="rId24" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId25" name="Control 93">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2141" r:id="rId25" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId26" name="Control 92">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId19" name="Control 1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId21" name="Control 2">
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2140" r:id="rId26" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId27" name="Control 91">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId27" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId28" name="Control 90">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId28" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId29" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId29" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId30" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId30" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId31" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId31" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId32" name="Control 86">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>13</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId21" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId22" name="Control 3">
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId32" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId33" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId33" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId34" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId34" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId35" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId35" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId36" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId36" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId37" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId37" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId38" name="Control 80">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId22" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId23" name="Control 4">
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId38" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId39" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId39" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId40" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId40" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId41" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId41" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId42" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId42" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId43" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId43" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId44" name="Control 74">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId23" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId24" name="Control 5">
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId44" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId45" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId45" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId46" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId46" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId47" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId47" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId48" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId48" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId49" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId49" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId50" name="Control 68">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId24" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId25" name="Control 6">
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId50" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId51" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId51" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId52" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId52" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId53" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId53" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId54" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId54" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId55" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId55" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId56" name="Control 62">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>9</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId25" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId26" name="Control 7">
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId56" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId57" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId57" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId58" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId58" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId59" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId59" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId60" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId60" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId61" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId61" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId62" name="Control 56">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId26" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId27" name="Control 8">
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId62" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId63" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId63" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId64" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId64" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId65" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId65" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId66" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId66" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId67" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId67" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId68" name="Control 50">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId27" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId28" name="Control 9">
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId68" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId69" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId69" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId70" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId70" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId71" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId71" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId72" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId72" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId73" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId73" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId74" name="Control 44">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId28" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId29" name="Control 10">
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId74" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId75" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId75" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId76" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId76" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId77" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId77" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId78" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId78" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId79" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId79" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId80" name="Control 38">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId29" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId30" name="Control 11">
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId80" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId81" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId81" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId82" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId82" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId83" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId83" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId84" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId84" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId85" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId85" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId86" name="Control 32">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId30" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId31" name="Control 12">
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId86" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId87" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId87" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId88" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId88" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId89" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId89" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId90" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId90" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId91" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId91" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId92" name="Control 26">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId31" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId32" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId92" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId93" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId93" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId94" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId94" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId95" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId95" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId96" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId96" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId97" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId32" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId33" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId33" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId34" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -6768,22 +8346,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2063" r:id="rId34" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId35" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
+        <control shapeId="2069" r:id="rId97" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId98" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -6793,22 +8371,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2064" r:id="rId35" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId36" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
+        <control shapeId="2068" r:id="rId98" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId99" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -6818,12 +8396,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2065" r:id="rId36" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId37" name="Control 18">
+        <control shapeId="2067" r:id="rId99" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId100" name="Control 18">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
@@ -6843,22 +8421,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2066" r:id="rId37" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId38" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
+        <control shapeId="2066" r:id="rId100" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId101" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -6868,22 +8446,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2067" r:id="rId38" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId39" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
+        <control shapeId="2065" r:id="rId101" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId102" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -6893,22 +8471,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2068" r:id="rId39" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId40" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
+        <control shapeId="2064" r:id="rId102" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId103" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
@@ -6918,1932 +8496,357 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2069" r:id="rId40" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId41" name="Control 22">
+        <control shapeId="2063" r:id="rId103" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId104" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId104" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId105" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId105" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId106" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId106" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId107" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId107" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId108" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId108" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId109" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId109" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId110" name="Control 8">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId41" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId42" name="Control 23">
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId110" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId111" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId111" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId112" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId112" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId113" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId113" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId114" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId114" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId115" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId115" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId116" name="Control 2">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId42" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId43" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId43" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId44" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId44" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId45" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId45" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId46" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId46" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId47" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId47" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId48" name="Control 29">
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId116" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId117" name="Control 1">
           <controlPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId48" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId49" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId49" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId50" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId50" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId51" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId51" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId52" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId52" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId53" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId53" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId54" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId54" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId55" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId55" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId56" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId56" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId57" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId57" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId58" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId58" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId59" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId59" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId60" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId60" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId61" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId61" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId62" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId62" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId63" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId63" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId64" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId64" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId65" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId65" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId66" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId66" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId67" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId67" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId68" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId68" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId69" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId69" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId70" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId70" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId71" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId71" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId72" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId72" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId73" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId73" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId74" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId74" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId75" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId75" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId76" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId76" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId77" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId77" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId78" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId78" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId79" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId79" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId80" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId80" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId81" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId81" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId82" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId82" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId83" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId83" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId84" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId84" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId85" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId85" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId86" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId86" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId87" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId87" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId88" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId88" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId89" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId89" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId90" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId90" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId91" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId91" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId92" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId92" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId93" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId93" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId94" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId94" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId95" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId95" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId96" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId96" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId97" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId97" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId98" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId98" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId99" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId99" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId100" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId100" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId101" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId101" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId102" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId102" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId103" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId103" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId104" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId104" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId105" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId105" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId106" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId106" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId107" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId107" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId108" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId108" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId109" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId109" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId110" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId110" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId111" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2140" r:id="rId111" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId112" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2141" r:id="rId112" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId113" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2142" r:id="rId113" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId114" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2143" r:id="rId114" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId115" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2144" r:id="rId115" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId116" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2145" r:id="rId116" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId117" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2146" r:id="rId117" name="Control 98"/>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId117" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EGCC\SISTUNI-PLSQL-008\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\SistUNI\SISTUNI-PLSQL-008\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="41">
   <si>
     <t>NRO</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>HUAISARA OLARTE KAREN ROXANA</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -5758,10 +5761,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5852,8 +5852,12 @@
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
@@ -5868,8 +5872,12 @@
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
@@ -5884,10 +5892,18 @@
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -5896,8 +5912,12 @@
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>6</v>
       </c>
@@ -5912,8 +5932,12 @@
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
       </c>
@@ -5928,8 +5952,12 @@
       <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
@@ -5944,8 +5972,12 @@
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>6</v>
       </c>
@@ -5960,10 +5992,18 @@
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -5972,8 +6012,12 @@
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
@@ -5988,8 +6032,12 @@
       <c r="B18" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="7" t="s">
         <v>6</v>
       </c>
@@ -6004,8 +6052,12 @@
       <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
@@ -6020,12 +6072,18 @@
       <c r="B20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
@@ -6037,12 +6095,18 @@
       <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -6051,8 +6115,12 @@
       <c r="B22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>6</v>
       </c>
@@ -6067,8 +6135,12 @@
       <c r="B23" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E23" s="7" t="s">
         <v>6</v>
       </c>
@@ -6083,8 +6155,12 @@
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="E24" s="7" t="s">
         <v>6</v>
       </c>
@@ -6401,17 +6477,2292 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2146" r:id="rId19" name="Control 98">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
+        <control shapeId="2049" r:id="rId19" name="Control 1">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId19" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId21" name="Control 2">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId21" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId22" name="Control 3">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId22" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId23" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId23" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId24" name="Control 5">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId24" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId25" name="Control 6">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
                 <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId25" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId26" name="Control 7">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId26" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId27" name="Control 8">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId27" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId28" name="Control 9">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId28" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId29" name="Control 10">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId29" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId30" name="Control 11">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId30" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId31" name="Control 12">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId31" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId32" name="Control 13">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId32" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId33" name="Control 14">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId33" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId34" name="Control 15">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId34" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId35" name="Control 16">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId35" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId36" name="Control 17">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId36" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId37" name="Control 18">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId37" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId38" name="Control 19">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId38" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId39" name="Control 20">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId39" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId40" name="Control 21">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId40" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId41" name="Control 22">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId41" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId42" name="Control 23">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId42" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId43" name="Control 24">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId43" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId44" name="Control 25">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId44" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId45" name="Control 26">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId45" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId46" name="Control 27">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId46" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId47" name="Control 28">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId47" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId48" name="Control 29">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId48" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId49" name="Control 30">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId49" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId50" name="Control 31">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId50" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId51" name="Control 32">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId51" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId52" name="Control 33">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId52" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId53" name="Control 34">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId53" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId54" name="Control 35">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId54" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId55" name="Control 36">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId55" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId56" name="Control 37">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId56" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId57" name="Control 38">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId57" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId58" name="Control 39">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId58" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId59" name="Control 40">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId59" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId60" name="Control 41">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId60" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId61" name="Control 42">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId61" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId62" name="Control 43">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId62" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId63" name="Control 44">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId63" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId64" name="Control 45">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId64" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId65" name="Control 46">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId65" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId66" name="Control 47">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId66" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId67" name="Control 48">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId67" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId68" name="Control 49">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId68" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId69" name="Control 50">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId69" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId70" name="Control 51">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId70" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId71" name="Control 52">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId71" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId72" name="Control 53">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId72" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId73" name="Control 54">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId73" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId74" name="Control 55">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId74" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId75" name="Control 56">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId75" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId76" name="Control 57">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId76" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId77" name="Control 58">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId77" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId78" name="Control 59">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId78" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId79" name="Control 60">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId79" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId80" name="Control 61">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId80" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId81" name="Control 62">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId81" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId82" name="Control 63">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId82" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId83" name="Control 64">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId83" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId84" name="Control 65">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId84" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId85" name="Control 66">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId85" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId86" name="Control 67">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId86" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId87" name="Control 68">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId87" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId88" name="Control 69">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId88" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId89" name="Control 70">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId89" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId90" name="Control 71">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId90" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId91" name="Control 72">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId91" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId92" name="Control 73">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId92" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId93" name="Control 74">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId93" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId94" name="Control 75">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId94" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId95" name="Control 76">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId95" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId96" name="Control 77">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId96" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId97" name="Control 78">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId97" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId98" name="Control 79">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId98" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId99" name="Control 80">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId99" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId100" name="Control 81">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId100" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId101" name="Control 82">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId101" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId102" name="Control 83">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId102" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId103" name="Control 84">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId103" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId104" name="Control 85">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId104" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId105" name="Control 86">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId105" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId106" name="Control 87">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId106" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId107" name="Control 88">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId107" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId108" name="Control 89">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId108" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2138" r:id="rId109" name="Control 90">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2138" r:id="rId109" name="Control 90"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2139" r:id="rId110" name="Control 91">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2139" r:id="rId110" name="Control 91"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2140" r:id="rId111" name="Control 92">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
@@ -6421,22 +8772,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2146" r:id="rId19" name="Control 98"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2145" r:id="rId21" name="Control 97">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
+        <control shapeId="2140" r:id="rId111" name="Control 92"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2141" r:id="rId112" name="Control 93">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
@@ -6446,22 +8797,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2145" r:id="rId21" name="Control 97"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2144" r:id="rId22" name="Control 96">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
+        <control shapeId="2141" r:id="rId112" name="Control 93"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2142" r:id="rId113" name="Control 94">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
@@ -6471,13 +8822,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2144" r:id="rId22" name="Control 96"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2143" r:id="rId23" name="Control 95">
-          <controlPr defaultSize="0" r:id="rId20">
+        <control shapeId="2142" r:id="rId113" name="Control 94"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2143" r:id="rId114" name="Control 95">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -6496,22 +8847,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2143" r:id="rId23" name="Control 95"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2142" r:id="rId24" name="Control 94">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
+        <control shapeId="2143" r:id="rId114" name="Control 95"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2144" r:id="rId115" name="Control 96">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
@@ -6521,22 +8872,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2142" r:id="rId24" name="Control 94"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2141" r:id="rId25" name="Control 93">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
+        <control shapeId="2144" r:id="rId115" name="Control 96"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2145" r:id="rId116" name="Control 97">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
@@ -6546,22 +8897,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2141" r:id="rId25" name="Control 93"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2140" r:id="rId26" name="Control 92">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
+        <control shapeId="2145" r:id="rId116" name="Control 97"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2146" r:id="rId117" name="Control 98">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId20">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>152400</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
@@ -6571,2282 +8922,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2140" r:id="rId26" name="Control 92"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2139" r:id="rId27" name="Control 91">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2139" r:id="rId27" name="Control 91"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2138" r:id="rId28" name="Control 90">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2138" r:id="rId28" name="Control 90"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2137" r:id="rId29" name="Control 89">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2137" r:id="rId29" name="Control 89"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2136" r:id="rId30" name="Control 88">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2136" r:id="rId30" name="Control 88"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2135" r:id="rId31" name="Control 87">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2135" r:id="rId31" name="Control 87"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2134" r:id="rId32" name="Control 86">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2134" r:id="rId32" name="Control 86"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2133" r:id="rId33" name="Control 85">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2133" r:id="rId33" name="Control 85"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2132" r:id="rId34" name="Control 84">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2132" r:id="rId34" name="Control 84"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2131" r:id="rId35" name="Control 83">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2131" r:id="rId35" name="Control 83"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2130" r:id="rId36" name="Control 82">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2130" r:id="rId36" name="Control 82"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2129" r:id="rId37" name="Control 81">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2129" r:id="rId37" name="Control 81"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2128" r:id="rId38" name="Control 80">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2128" r:id="rId38" name="Control 80"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2127" r:id="rId39" name="Control 79">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2127" r:id="rId39" name="Control 79"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2126" r:id="rId40" name="Control 78">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2126" r:id="rId40" name="Control 78"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2125" r:id="rId41" name="Control 77">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2125" r:id="rId41" name="Control 77"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2124" r:id="rId42" name="Control 76">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2124" r:id="rId42" name="Control 76"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2123" r:id="rId43" name="Control 75">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2123" r:id="rId43" name="Control 75"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2122" r:id="rId44" name="Control 74">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2122" r:id="rId44" name="Control 74"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2121" r:id="rId45" name="Control 73">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2121" r:id="rId45" name="Control 73"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2120" r:id="rId46" name="Control 72">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2120" r:id="rId46" name="Control 72"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2119" r:id="rId47" name="Control 71">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2119" r:id="rId47" name="Control 71"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2118" r:id="rId48" name="Control 70">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2118" r:id="rId48" name="Control 70"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2117" r:id="rId49" name="Control 69">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2117" r:id="rId49" name="Control 69"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2116" r:id="rId50" name="Control 68">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2116" r:id="rId50" name="Control 68"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2115" r:id="rId51" name="Control 67">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2115" r:id="rId51" name="Control 67"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2114" r:id="rId52" name="Control 66">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2114" r:id="rId52" name="Control 66"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2113" r:id="rId53" name="Control 65">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2113" r:id="rId53" name="Control 65"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2112" r:id="rId54" name="Control 64">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2112" r:id="rId54" name="Control 64"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2111" r:id="rId55" name="Control 63">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2111" r:id="rId55" name="Control 63"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2110" r:id="rId56" name="Control 62">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2110" r:id="rId56" name="Control 62"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2109" r:id="rId57" name="Control 61">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2109" r:id="rId57" name="Control 61"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2108" r:id="rId58" name="Control 60">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2108" r:id="rId58" name="Control 60"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2107" r:id="rId59" name="Control 59">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2107" r:id="rId59" name="Control 59"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2106" r:id="rId60" name="Control 58">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2106" r:id="rId60" name="Control 58"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2105" r:id="rId61" name="Control 57">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2105" r:id="rId61" name="Control 57"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2104" r:id="rId62" name="Control 56">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2104" r:id="rId62" name="Control 56"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2103" r:id="rId63" name="Control 55">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2103" r:id="rId63" name="Control 55"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2102" r:id="rId64" name="Control 54">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2102" r:id="rId64" name="Control 54"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2101" r:id="rId65" name="Control 53">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2101" r:id="rId65" name="Control 53"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2100" r:id="rId66" name="Control 52">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2100" r:id="rId66" name="Control 52"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2099" r:id="rId67" name="Control 51">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2099" r:id="rId67" name="Control 51"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2098" r:id="rId68" name="Control 50">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2098" r:id="rId68" name="Control 50"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2097" r:id="rId69" name="Control 49">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2097" r:id="rId69" name="Control 49"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2096" r:id="rId70" name="Control 48">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2096" r:id="rId70" name="Control 48"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2095" r:id="rId71" name="Control 47">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2095" r:id="rId71" name="Control 47"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2094" r:id="rId72" name="Control 46">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2094" r:id="rId72" name="Control 46"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2093" r:id="rId73" name="Control 45">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2093" r:id="rId73" name="Control 45"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2092" r:id="rId74" name="Control 44">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2092" r:id="rId74" name="Control 44"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2091" r:id="rId75" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2091" r:id="rId75" name="Control 43"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2090" r:id="rId76" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2090" r:id="rId76" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2089" r:id="rId77" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2089" r:id="rId77" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2088" r:id="rId78" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2088" r:id="rId78" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2087" r:id="rId79" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2087" r:id="rId79" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2086" r:id="rId80" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2086" r:id="rId80" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2085" r:id="rId81" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2085" r:id="rId81" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2084" r:id="rId82" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2084" r:id="rId82" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2083" r:id="rId83" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2083" r:id="rId83" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2082" r:id="rId84" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2082" r:id="rId84" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2081" r:id="rId85" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2081" r:id="rId85" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2080" r:id="rId86" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2080" r:id="rId86" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2079" r:id="rId87" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2079" r:id="rId87" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2078" r:id="rId88" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2078" r:id="rId88" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2077" r:id="rId89" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2077" r:id="rId89" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2076" r:id="rId90" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2076" r:id="rId90" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2075" r:id="rId91" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2075" r:id="rId91" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2074" r:id="rId92" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2074" r:id="rId92" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2073" r:id="rId93" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2073" r:id="rId93" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2072" r:id="rId94" name="Control 24">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2072" r:id="rId94" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2071" r:id="rId95" name="Control 23">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2071" r:id="rId95" name="Control 23"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2070" r:id="rId96" name="Control 22">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2070" r:id="rId96" name="Control 22"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2069" r:id="rId97" name="Control 21">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2069" r:id="rId97" name="Control 21"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2068" r:id="rId98" name="Control 20">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2068" r:id="rId98" name="Control 20"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2067" r:id="rId99" name="Control 19">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2067" r:id="rId99" name="Control 19"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2066" r:id="rId100" name="Control 18">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2066" r:id="rId100" name="Control 18"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2065" r:id="rId101" name="Control 17">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2065" r:id="rId101" name="Control 17"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2064" r:id="rId102" name="Control 16">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2064" r:id="rId102" name="Control 16"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2063" r:id="rId103" name="Control 15">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2063" r:id="rId103" name="Control 15"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2062" r:id="rId104" name="Control 14">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2062" r:id="rId104" name="Control 14"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2061" r:id="rId105" name="Control 13">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2061" r:id="rId105" name="Control 13"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2060" r:id="rId106" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2060" r:id="rId106" name="Control 12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2059" r:id="rId107" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2059" r:id="rId107" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2058" r:id="rId108" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2058" r:id="rId108" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2057" r:id="rId109" name="Control 9">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2057" r:id="rId109" name="Control 9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2056" r:id="rId110" name="Control 8">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2056" r:id="rId110" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2055" r:id="rId111" name="Control 7">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2055" r:id="rId111" name="Control 7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId112" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId112" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId113" name="Control 5">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId113" name="Control 5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId114" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId114" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId115" name="Control 3">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId115" name="Control 3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId116" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId116" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId117" name="Control 1">
-          <controlPr defaultSize="0" r:id="rId20">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId117" name="Control 1"/>
+        <control shapeId="2146" r:id="rId117" name="Control 98"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
